--- a/lista_Documentos_PersonalOperativo.xlsx
+++ b/lista_Documentos_PersonalOperativo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fieldtech\python-scripts\emailDoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5D79718-3CA6-431F-A2D6-71666762A686}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5AE844D-A514-4B1A-B77B-613D2226AD14}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{001F01CD-699B-4830-8C1D-F390C5A70498}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{001F01CD-699B-4830-8C1D-F390C5A70498}"/>
   </bookViews>
   <sheets>
     <sheet name="Doc. Personal" sheetId="1" r:id="rId1"/>
@@ -359,13 +359,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -411,6 +410,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -436,7 +441,21 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -453,6 +472,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFFCC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -763,8 +787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BD66DAD-8099-48C5-A805-2D47B2954689}">
   <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -784,102 +808,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="22">
+      <c r="B2" s="21">
         <f ca="1">TODAY()</f>
-        <v>44182</v>
-      </c>
-      <c r="C2" s="22"/>
+        <v>44209</v>
+      </c>
+      <c r="C2" s="21"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D3" s="38" t="s">
+      <c r="D3" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="41"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="13" t="s">
+      <c r="J4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="14" t="s">
+      <c r="K4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="13" t="s">
+      <c r="L4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="14" t="s">
+      <c r="M4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="N4" s="13" t="s">
+      <c r="N4" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="O4" s="15" t="s">
+      <c r="O4" s="14" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="8">
         <v>40298621</v>
       </c>
       <c r="D5" s="1">
@@ -900,33 +924,33 @@
       <c r="I5" s="3">
         <v>44442</v>
       </c>
-      <c r="J5" s="16">
+      <c r="J5" s="15">
         <v>44420</v>
       </c>
-      <c r="K5" s="17">
+      <c r="K5" s="16">
         <v>44298</v>
       </c>
-      <c r="L5" s="16">
+      <c r="L5" s="15">
         <v>44298</v>
       </c>
-      <c r="M5" s="17">
+      <c r="M5" s="16">
         <v>44940</v>
       </c>
-      <c r="N5" s="16">
+      <c r="N5" s="15">
         <v>45909</v>
       </c>
-      <c r="O5" s="18">
+      <c r="O5" s="17">
         <v>44239</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
+      <c r="A6" s="6">
         <v>2</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="9">
         <v>43058931</v>
       </c>
       <c r="D6" s="2">
@@ -947,22 +971,22 @@
       <c r="I6" s="4">
         <v>44541</v>
       </c>
-      <c r="J6" s="19">
+      <c r="J6" s="18">
         <v>44488</v>
       </c>
-      <c r="K6" s="20">
+      <c r="K6" s="19">
         <v>45109</v>
       </c>
-      <c r="L6" s="19">
+      <c r="L6" s="18">
         <v>45179</v>
       </c>
-      <c r="M6" s="20">
+      <c r="M6" s="19">
         <v>46357</v>
       </c>
-      <c r="N6" s="19">
+      <c r="N6" s="18">
         <v>45909</v>
       </c>
-      <c r="O6" s="21">
+      <c r="O6" s="20">
         <v>45109</v>
       </c>
     </row>
@@ -972,10 +996,10 @@
     <mergeCell ref="D3:O3"/>
   </mergeCells>
   <conditionalFormatting sqref="D5:O6">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>(D5-$B$2)&lt;7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>(D5-$B$2)&lt;=30</formula>
     </cfRule>
   </conditionalFormatting>
@@ -988,81 +1012,85 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C6432E1-EF08-4A13-9343-1DB68246FA77}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" customWidth="1"/>
     <col min="3" max="3" width="19.28515625" customWidth="1"/>
     <col min="4" max="4" width="22" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="35"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="34"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="35"/>
+      <c r="A2" s="37">
+        <f ca="1">TODAY()</f>
+        <v>44209</v>
+      </c>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="34"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="36"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="42" t="s">
+      <c r="A3" s="35"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="43"/>
-      <c r="E3" s="27"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="26"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="24" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="31">
+      <c r="A5" s="30">
         <v>1</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C5" s="25">
         <v>44231</v>
       </c>
-      <c r="D5" s="28">
+      <c r="D5" s="27">
         <v>44394</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="32">
+      <c r="A6" s="31">
         <v>2</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="33" t="s">
         <v>23</v>
       </c>
       <c r="C6" s="2">
         <v>44461</v>
       </c>
-      <c r="D6" s="29">
+      <c r="D6" s="28">
         <v>44380</v>
       </c>
     </row>
@@ -1071,6 +1099,14 @@
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="C3:D3"/>
   </mergeCells>
+  <conditionalFormatting sqref="C5:D6">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>C5&lt;$A$2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>(C5-$A$2)&lt;30</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
